--- a/临渊测试拆分.xlsx
+++ b/临渊测试拆分.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninge\Desktop\star\临渊\临渊策略需求集合\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE757D-BAE5-48DD-A2ED-9DAE363D5E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2848F5C9-579F-4C9C-8CFE-879D4190C606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例明细" sheetId="1" r:id="rId1"/>
     <sheet name="整理分割" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="引擎策略" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">整理分割!$A$1:$J$187</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="246">
   <si>
     <t>场景编号</t>
   </si>
@@ -871,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,6 +895,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1183,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4932880-4DB9-446D-9562-9132E1816115}">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -7360,11 +7364,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F414766-2976-438C-9FC3-02B6E4246849}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41524DF3-BCDE-45DB-8C71-DF28B4DF2BEE}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.75" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
